--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.89290866666667</v>
+        <v>19.28294533333333</v>
       </c>
       <c r="H2">
-        <v>47.678726</v>
+        <v>57.848836</v>
       </c>
       <c r="I2">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344932</v>
       </c>
       <c r="J2">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344931</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>1572.551247397874</v>
+        <v>3241.652610464772</v>
       </c>
       <c r="R2">
-        <v>14152.96122658087</v>
+        <v>29174.87349418295</v>
       </c>
       <c r="S2">
-        <v>0.008686596342324717</v>
+        <v>0.01362212687948521</v>
       </c>
       <c r="T2">
-        <v>0.008686596342324718</v>
+        <v>0.01362212687948521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.89290866666667</v>
+        <v>19.28294533333333</v>
       </c>
       <c r="H3">
-        <v>47.678726</v>
+        <v>57.848836</v>
       </c>
       <c r="I3">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344932</v>
       </c>
       <c r="J3">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344931</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>2590.643215547475</v>
+        <v>3143.240331352784</v>
       </c>
       <c r="R3">
-        <v>23315.78893992728</v>
+        <v>28289.16298217505</v>
       </c>
       <c r="S3">
-        <v>0.01431042194502758</v>
+        <v>0.01320857715233829</v>
       </c>
       <c r="T3">
-        <v>0.01431042194502759</v>
+        <v>0.01320857715233828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.89290866666667</v>
+        <v>19.28294533333333</v>
       </c>
       <c r="H4">
-        <v>47.678726</v>
+        <v>57.848836</v>
       </c>
       <c r="I4">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344932</v>
       </c>
       <c r="J4">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344931</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>2292.914380507904</v>
+        <v>3200.844164677027</v>
       </c>
       <c r="R4">
-        <v>20636.22942457114</v>
+        <v>28807.59748209324</v>
       </c>
       <c r="S4">
-        <v>0.01266580132376716</v>
+        <v>0.01345064094527971</v>
       </c>
       <c r="T4">
-        <v>0.01266580132376717</v>
+        <v>0.0134506409452797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.89290866666667</v>
+        <v>19.28294533333333</v>
       </c>
       <c r="H5">
-        <v>47.678726</v>
+        <v>57.848836</v>
       </c>
       <c r="I5">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344932</v>
       </c>
       <c r="J5">
-        <v>0.04140398574586632</v>
+        <v>0.04564777115344931</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>1039.334350408925</v>
+        <v>1277.046497754857</v>
       </c>
       <c r="R5">
-        <v>9354.009153680321</v>
+        <v>11493.41847979371</v>
       </c>
       <c r="S5">
-        <v>0.005741166134746854</v>
+        <v>0.005366426176346119</v>
       </c>
       <c r="T5">
-        <v>0.005741166134746856</v>
+        <v>0.005366426176346117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>268.8003336666667</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H6">
-        <v>806.4010010000001</v>
+        <v>806.401001</v>
       </c>
       <c r="I6">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="J6">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>26596.91242642358</v>
+        <v>45187.97767984571</v>
       </c>
       <c r="R6">
-        <v>239372.2118378122</v>
+        <v>406691.7991186114</v>
       </c>
       <c r="S6">
-        <v>0.1469183548598507</v>
+        <v>0.1898896764554757</v>
       </c>
       <c r="T6">
-        <v>0.1469183548598508</v>
+        <v>0.1898896764554757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>268.8003336666667</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H7">
-        <v>806.4010010000001</v>
+        <v>806.401001</v>
       </c>
       <c r="I7">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="J7">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>43816.1305369473</v>
@@ -883,10 +883,10 @@
         <v>394345.1748325257</v>
       </c>
       <c r="S7">
-        <v>0.2420353803329941</v>
+        <v>0.1841248774207198</v>
       </c>
       <c r="T7">
-        <v>0.2420353803329941</v>
+        <v>0.1841248774207198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>268.8003336666667</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H8">
-        <v>806.4010010000001</v>
+        <v>806.401001</v>
       </c>
       <c r="I8">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="J8">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>38780.57588302316</v>
+        <v>44619.11625050784</v>
       </c>
       <c r="R8">
-        <v>349025.1829472085</v>
+        <v>401572.0462545706</v>
       </c>
       <c r="S8">
-        <v>0.2142195424003772</v>
+        <v>0.1874991974318228</v>
       </c>
       <c r="T8">
-        <v>0.2142195424003773</v>
+        <v>0.1874991974318228</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>268.8003336666667</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H9">
-        <v>806.4010010000001</v>
+        <v>806.401001</v>
       </c>
       <c r="I9">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="J9">
-        <v>0.700274909838328</v>
+        <v>0.6363206400827226</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>17578.49529250093</v>
+        <v>17801.76828645369</v>
       </c>
       <c r="R9">
-        <v>158206.4576325084</v>
+        <v>160215.9145780832</v>
       </c>
       <c r="S9">
-        <v>0.09710163224510582</v>
+        <v>0.07480688877470432</v>
       </c>
       <c r="T9">
-        <v>0.09710163224510585</v>
+        <v>0.07480688877470432</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.32556</v>
+        <v>56.43559133333333</v>
       </c>
       <c r="H10">
-        <v>171.97668</v>
+        <v>169.306774</v>
       </c>
       <c r="I10">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="J10">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>5672.17636346544</v>
+        <v>9487.377514501228</v>
       </c>
       <c r="R10">
-        <v>51049.58727118895</v>
+        <v>85386.39763051106</v>
       </c>
       <c r="S10">
-        <v>0.03133246470245762</v>
+        <v>0.03986801665264841</v>
       </c>
       <c r="T10">
-        <v>0.03133246470245762</v>
+        <v>0.03986801665264842</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.32556</v>
+        <v>56.43559133333333</v>
       </c>
       <c r="H11">
-        <v>171.97668</v>
+        <v>169.306774</v>
       </c>
       <c r="I11">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="J11">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>9344.42374308364</v>
+        <v>9199.353300869023</v>
       </c>
       <c r="R11">
-        <v>84099.81368775276</v>
+        <v>82794.17970782121</v>
       </c>
       <c r="S11">
-        <v>0.0516175464819464</v>
+        <v>0.03865767647930723</v>
       </c>
       <c r="T11">
-        <v>0.05161754648194641</v>
+        <v>0.03865767647930723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.32556</v>
+        <v>56.43559133333333</v>
       </c>
       <c r="H12">
-        <v>171.97668</v>
+        <v>169.306774</v>
       </c>
       <c r="I12">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="J12">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>8270.5188616828</v>
+        <v>9367.943023057405</v>
       </c>
       <c r="R12">
-        <v>74434.66975514519</v>
+        <v>84311.48720751665</v>
       </c>
       <c r="S12">
-        <v>0.0456854166195859</v>
+        <v>0.03936612703283462</v>
       </c>
       <c r="T12">
-        <v>0.0456854166195859</v>
+        <v>0.03936612703283462</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>57.32556</v>
+        <v>56.43559133333333</v>
       </c>
       <c r="H13">
-        <v>171.97668</v>
+        <v>169.306774</v>
       </c>
       <c r="I13">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="J13">
-        <v>0.1493437556897266</v>
+        <v>0.1335977939863952</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>3748.868436486401</v>
+        <v>3737.544914177236</v>
       </c>
       <c r="R13">
-        <v>33739.8159283776</v>
+        <v>33637.90422759512</v>
       </c>
       <c r="S13">
-        <v>0.02070832788573664</v>
+        <v>0.01570597382160492</v>
       </c>
       <c r="T13">
-        <v>0.02070832788573665</v>
+        <v>0.01570597382160492</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.83092566666667</v>
+        <v>77.91019566666667</v>
       </c>
       <c r="H14">
-        <v>125.492777</v>
+        <v>233.730587</v>
       </c>
       <c r="I14">
-        <v>0.1089773487260793</v>
+        <v>0.184433794777433</v>
       </c>
       <c r="J14">
-        <v>0.1089773487260793</v>
+        <v>0.1844337947774329</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>4139.033056604183</v>
+        <v>13097.46954102955</v>
       </c>
       <c r="R14">
-        <v>37251.29750943765</v>
+        <v>117877.2258692659</v>
       </c>
       <c r="S14">
-        <v>0.02286355339436652</v>
+        <v>0.05503840581564262</v>
       </c>
       <c r="T14">
-        <v>0.02286355339436653</v>
+        <v>0.05503840581564262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.83092566666667</v>
+        <v>77.91019566666667</v>
       </c>
       <c r="H15">
-        <v>125.492777</v>
+        <v>233.730587</v>
       </c>
       <c r="I15">
-        <v>0.1089773487260793</v>
+        <v>0.184433794777433</v>
       </c>
       <c r="J15">
-        <v>0.1089773487260793</v>
+        <v>0.1844337947774329</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>6818.701727375482</v>
+        <v>12699.84771567678</v>
       </c>
       <c r="R15">
-        <v>61368.31554637934</v>
+        <v>114298.629441091</v>
       </c>
       <c r="S15">
-        <v>0.03766574194795501</v>
+        <v>0.05336751272317417</v>
       </c>
       <c r="T15">
-        <v>0.03766574194795502</v>
+        <v>0.05336751272317417</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.83092566666667</v>
+        <v>77.91019566666667</v>
       </c>
       <c r="H16">
-        <v>125.492777</v>
+        <v>233.730587</v>
       </c>
       <c r="I16">
-        <v>0.1089773487260793</v>
+        <v>0.184433794777433</v>
       </c>
       <c r="J16">
-        <v>0.1089773487260793</v>
+        <v>0.1844337947774329</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>6035.064633085448</v>
+        <v>12932.5884017007</v>
       </c>
       <c r="R16">
-        <v>54315.58169776903</v>
+        <v>116393.2956153063</v>
       </c>
       <c r="S16">
-        <v>0.03333701871668756</v>
+        <v>0.05434553953110587</v>
       </c>
       <c r="T16">
-        <v>0.03333701871668757</v>
+        <v>0.05434553953110587</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.83092566666667</v>
+        <v>77.91019566666667</v>
       </c>
       <c r="H17">
-        <v>125.492777</v>
+        <v>233.730587</v>
       </c>
       <c r="I17">
-        <v>0.1089773487260793</v>
+        <v>0.184433794777433</v>
       </c>
       <c r="J17">
-        <v>0.1089773487260793</v>
+        <v>0.1844337947774329</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>2735.579676862738</v>
+        <v>5159.737830274352</v>
       </c>
       <c r="R17">
-        <v>24620.21709176464</v>
+        <v>46437.64047246917</v>
       </c>
       <c r="S17">
-        <v>0.01511103466707015</v>
+        <v>0.02168233670751031</v>
       </c>
       <c r="T17">
-        <v>0.01511103466707015</v>
+        <v>0.0216823367075103</v>
       </c>
     </row>
   </sheetData>
